--- a/org.xlsx
+++ b/org.xlsx
@@ -21,136 +21,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <x:si>
+    <x:t>부사수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송나겸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이윤하</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감리자2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장대리인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>년/월→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문 세 웅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강 준 형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인허가기관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감리자1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안전관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보건관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복구관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박 세 훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010-4373-8115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010-4492-2789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010-2408-2983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에이치디씨현대산업개발(주)</x:t>
+  </x:si>
+  <x:si>
     <x:t>01011010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>년/월→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장대리인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감리자2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강 준 형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보건관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문 세 웅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인허가기관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안전관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감리자1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박 세 훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복구관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부사수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>010-4492-2789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에이치디씨현대산업개발(주)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>010-4373-8115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>010-2408-2983</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송나겸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이윤하</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1138,7 +1138,7 @@
   <x:dimension ref="A1:E19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E13" activeCellId="0" sqref="E13:E13"/>
+      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -1155,117 +1155,117 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D1" s="13" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" s="1" customFormat="1" ht="16.75">
       <x:c r="A2" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="15" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="15" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="15" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="15" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
         <x:v>39</x:v>
@@ -1273,94 +1273,94 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="15" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="15" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="15" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="15" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="15" t="s">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="15" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1">
       <x:c r="A18" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1">
       <x:c r="A19" s="15" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/org.xlsx
+++ b/org.xlsx
@@ -19,138 +19,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+  <x:si>
+    <x:t>안전관리자2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보건관리자2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01011010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문 세 웅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감리자2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>년/월→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-배치예정-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장대리인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보건관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복구관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박 세 훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인허가기관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안전관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강 준 형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감리자1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타관리6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송나겸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
   <x:si>
     <x:t>부사수</x:t>
   </x:si>
   <x:si>
+    <x:t>이상민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>현장</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>본사</x:t>
   </x:si>
   <x:si>
-    <x:t>발주자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01</x:t>
-  </x:si>
-  <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송나겸</x:t>
+    <x:t>우리집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현장명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이윤하</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판곡초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이윤하</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감리자2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장대리인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>년/월→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문 세 웅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강 준 형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인허가기관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감리자1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안전관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보건관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복구관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박 세 훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타관리1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현장관리자</x:t>
+    <x:t>010-2408-2983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010-4492-2789</x:t>
   </x:si>
   <x:si>
     <x:t>010-4373-8115</x:t>
   </x:si>
   <x:si>
-    <x:t>010-4492-2789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>010-2408-2983</x:t>
-  </x:si>
-  <x:si>
     <x:t>에이치디씨현대산업개발(주)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01011010</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1135,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E19"/>
+  <x:dimension ref="A1:G19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C11" activeCellId="0" sqref="C11:C11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -1153,210 +1189,237 @@
     <x:col min="8" max="16384" width="8.66015625" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="13" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B1" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C1" s="13" t="s">
-        <x:v>15</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D1" s="13" t="s">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" s="1" customFormat="1" ht="16.75">
       <x:c r="A2" s="15" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="15" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B3" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E3" s="7" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="7" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="15" t="s">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="15" t="s">
-        <x:v>17</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B7" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D7" s="11" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D7" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="15" t="s">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="15" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
       <x:c r="A10" s="15" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="E10" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4">
+    <x:row r="11" spans="1:5">
       <x:c r="A11" s="15" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>11</x:v>
+      <x:c r="C11" s="1" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
       <x:c r="A12" s="15" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="15" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="15" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="15" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="15" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
       <x:c r="A18" s="15" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1">
       <x:c r="A19" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
